--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\TestShopee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\Shopee_AutoTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBEFA713-0230-4508-91C8-AA602CBB700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143F04F2-B300-471C-BDBB-DBA4591C8F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="1" xr2:uid="{9A187316-C61B-48B7-9243-42F05AD8559C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="3" xr2:uid="{9A187316-C61B-48B7-9243-42F05AD8559C}"/>
   </bookViews>
   <sheets>
     <sheet name="THANH TOÁN" sheetId="1" r:id="rId1"/>
     <sheet name="XEM TRẠNG THÁI ĐƠN HÀNG" sheetId="3" r:id="rId2"/>
+    <sheet name="ĐĂNG KÝ" sheetId="4" r:id="rId3"/>
+    <sheet name="TÌM KIẾM" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="145">
   <si>
     <t>5. Chức năng thanh toán : KỊCH BẢN KIỂM THỬ</t>
   </si>
@@ -326,13 +328,213 @@
   </si>
   <si>
     <t>-Xem số tiền hoàn loại</t>
+  </si>
+  <si>
+    <t>Điều kiện</t>
+  </si>
+  <si>
+    <t>Yêu cầu đăng nhập Facebook.</t>
+  </si>
+  <si>
+    <t>Yêu cầu đăng nhập Google.</t>
+  </si>
+  <si>
+    <t>Số điện thoại ko hợp lệ</t>
+  </si>
+  <si>
+    <t>Tài khoản Facebook đã được đăng nhập</t>
+  </si>
+  <si>
+    <t>Tài khoản Facebook chưa được đăng nhập</t>
+  </si>
+  <si>
+    <t>Tài khoản Google đã được đăng nhập</t>
+  </si>
+  <si>
+    <t>Tài khoản Google chưa được đăng nhập</t>
+  </si>
+  <si>
+    <t>Nhập nguyên chữ cái</t>
+  </si>
+  <si>
+    <t>Nhập số nhưng quá 10 số</t>
+  </si>
+  <si>
+    <t>Nhập đúng định dạng sdt</t>
+  </si>
+  <si>
+    <t>Hoàn tất đăng ký.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Facebook : có tài khoản, không có tài khoản</t>
+  </si>
+  <si>
+    <t>Google : có tài khoản, không có tài khoản</t>
+  </si>
+  <si>
+    <t>Kịch bản kiểm thử cho Chức năng Đăng Ký</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>Đăng ký bằng tài khoản Facebook</t>
+  </si>
+  <si>
+    <t>Trang đăng ký của Shopee phải được mở
+và tài khoản Facebook đã được đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Mở trang đăng ký của Shopee</t>
+  </si>
+  <si>
+    <t>Đăng ký thành công</t>
+  </si>
+  <si>
+    <t>2. Chọn biểu tượng Đăng ký bằng Facebook</t>
+  </si>
+  <si>
+    <t>3. Chọn tiếp tục dưới tài khoản Facebook</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>Trang đăng ký của Shopee phải được mở
+Tài khoản Facebook chưa được đăng nhập</t>
+  </si>
+  <si>
+    <t>3. Đăng nhập tài khoản Facebook</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>Đăng ký bằng tài khoản Google</t>
+  </si>
+  <si>
+    <t>Trang đăng ký của Shopee phải được mở
+và tài khoản Google đã được đăng nhập</t>
+  </si>
+  <si>
+    <t>2. Chọn biểu tượng Đăng ký bằng Goolge</t>
+  </si>
+  <si>
+    <t>3. Chọn tài khoản Google</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>Trang đăng ký của Google phải được mở
+Tài khoản Google chưa được đăng nhập</t>
+  </si>
+  <si>
+    <t>2. Chọn biểu tượng Đăng ký bằng Google</t>
+  </si>
+  <si>
+    <t>3. Đăng nhập tài khoản Google</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản bằng SĐT</t>
+  </si>
+  <si>
+    <t>Trang đăng ký của Shopee phải được mở</t>
+  </si>
+  <si>
+    <t>Đăng ký thành công
+Chuyển về trang chủ với tài khoản đã đăng ký</t>
+  </si>
+  <si>
+    <t>2. Chọn ô nhập SĐT</t>
+  </si>
+  <si>
+    <t>3. Bấm nút tiếp theo</t>
+  </si>
+  <si>
+    <t>4. Chọn capcha (nếu có)</t>
+  </si>
+  <si>
+    <t>5. Chọn phương thức gửi mã xác nhập</t>
+  </si>
+  <si>
+    <t>6. Nhập mã xác nhận</t>
+  </si>
+  <si>
+    <t>7. Chọn đăng ký</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>Trang đăng ký của Shopee phải được mở
+Nhập nguyên chữ cái</t>
+  </si>
+  <si>
+    <t>3. Nhập các chữ cái</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>Trang đăng ký của Shopee phải được mở
+Nhập số nhưng quá 10 số</t>
+  </si>
+  <si>
+    <t>3. Nhập sai định dạng của SĐT</t>
+  </si>
+  <si>
+    <t>Tên testcase</t>
+  </si>
+  <si>
+    <t>Các bức thực hiện</t>
+  </si>
+  <si>
+    <t>Kết quả mong đợi</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Mã capcha mỗi lần khác nhau và phải tự điền tay, không tự động được</t>
+  </si>
+  <si>
+    <t>Đăng ký được bằng facebook và đăng nhập luôn vào shopee</t>
+  </si>
+  <si>
+    <t>Yêu cầu đăng nhập vào facebook, đăng nhập được vào facebook và đăng ký shopee thành công</t>
+  </si>
+  <si>
+    <t>Đăng ký thành công và đăng nhập luôn vào trang shopee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phải nhập mã capcha bằng tay, kịch bản không tự động chạy </t>
+  </si>
+  <si>
+    <t>Đăng ký không thành công</t>
+  </si>
+  <si>
+    <t>Thông báo"Số điện thoại không hợp lệ"
+Nút Tiếp theo bị khóa, không đăng ký được tài khoản shopee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -358,8 +560,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,8 +619,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -689,11 +924,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -704,68 +954,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -776,32 +1053,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,7 +1432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7622A87D-E9C2-4672-8DE8-2CB1B5C09046}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F10"/>
     </sheetView>
   </sheetViews>
@@ -1155,69 +1448,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="14"/>
@@ -1226,11 +1519,11 @@
     </row>
     <row r="5" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="14"/>
@@ -1239,11 +1532,11 @@
     </row>
     <row r="6" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="14"/>
@@ -1252,22 +1545,22 @@
     </row>
     <row r="7" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="14"/>
@@ -1276,11 +1569,11 @@
     </row>
     <row r="9" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="14"/>
@@ -1288,48 +1581,48 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11">
+      <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="14"/>
@@ -1338,11 +1631,11 @@
     </row>
     <row r="13" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="14"/>
@@ -1351,11 +1644,11 @@
     </row>
     <row r="14" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="14"/>
@@ -1364,33 +1657,33 @@
     </row>
     <row r="15" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="14"/>
@@ -1398,46 +1691,46 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="17"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="11">
+      <c r="A19" s="13">
         <v>3</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="14"/>
@@ -1446,22 +1739,22 @@
     </row>
     <row r="21" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="14"/>
@@ -1470,22 +1763,22 @@
     </row>
     <row r="23" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="14"/>
@@ -1494,11 +1787,11 @@
     </row>
     <row r="25" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="14"/>
@@ -1506,46 +1799,46 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="17"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="11">
+      <c r="A27" s="13">
         <v>4</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="14"/>
@@ -1554,22 +1847,22 @@
     </row>
     <row r="29" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="14"/>
@@ -1578,33 +1871,33 @@
     </row>
     <row r="31" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="14"/>
@@ -1612,57 +1905,57 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="11">
+      <c r="A35" s="13">
         <v>5</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="13"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="14"/>
@@ -1671,11 +1964,11 @@
     </row>
     <row r="38" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="14"/>
@@ -1684,22 +1977,22 @@
     </row>
     <row r="39" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="13"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="13" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="14"/>
@@ -1708,11 +2001,11 @@
     </row>
     <row r="41" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="17"/>
+      <c r="C41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="14"/>
@@ -1720,57 +2013,57 @@
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="17"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="11">
+      <c r="A43" s="13">
         <v>6</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="13"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="13" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="14"/>
@@ -1779,11 +2072,11 @@
     </row>
     <row r="46" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="13" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="14"/>
@@ -1792,33 +2085,33 @@
     </row>
     <row r="47" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="13"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="20" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="13"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="13" t="s">
+      <c r="B49" s="17"/>
+      <c r="C49" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="14"/>
@@ -1826,68 +2119,68 @@
       <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="17"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="18"/>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="11">
+      <c r="A51" s="13">
         <v>7</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="20" t="s">
+      <c r="B52" s="17"/>
+      <c r="C52" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="13"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="20" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="13"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="13" t="s">
+      <c r="B54" s="17"/>
+      <c r="C54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="14"/>
@@ -1896,33 +2189,33 @@
     </row>
     <row r="55" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16" t="s">
+      <c r="B55" s="17"/>
+      <c r="C55" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="13"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="13" t="s">
+      <c r="B56" s="17"/>
+      <c r="C56" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="13"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="13" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="14"/>
@@ -1930,46 +2223,46 @@
       <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="17"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="18"/>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="11">
+      <c r="A59" s="13">
         <v>8</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="20" t="s">
+      <c r="B60" s="17"/>
+      <c r="C60" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="14"/>
@@ -1978,11 +2271,11 @@
     </row>
     <row r="61" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="20" t="s">
+      <c r="B61" s="17"/>
+      <c r="C61" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="14"/>
@@ -1991,11 +2284,11 @@
     </row>
     <row r="62" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="13" t="s">
+      <c r="B62" s="17"/>
+      <c r="C62" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E62" s="14"/>
@@ -2004,22 +2297,22 @@
     </row>
     <row r="63" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="20" t="s">
+      <c r="B63" s="17"/>
+      <c r="C63" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="13"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
     <row r="64" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="20" t="s">
+      <c r="B64" s="17"/>
+      <c r="C64" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="14"/>
@@ -2028,11 +2321,11 @@
     </row>
     <row r="65" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="13" t="s">
+      <c r="B65" s="17"/>
+      <c r="C65" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E65" s="14"/>
@@ -2040,162 +2333,162 @@
       <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="17"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="11">
+      <c r="A67" s="13">
         <v>9</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="11" t="s">
+      <c r="D67" s="5"/>
+      <c r="E67" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="13" t="s">
+      <c r="B68" s="17"/>
+      <c r="C68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="13"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="13" t="s">
+      <c r="B69" s="17"/>
+      <c r="C69" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="13"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="13" t="s">
+      <c r="B70" s="17"/>
+      <c r="C70" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="13"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
     <row r="71" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="13" t="s">
+      <c r="B71" s="17"/>
+      <c r="C71" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="13"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
     <row r="72" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="13" t="s">
+      <c r="B72" s="17"/>
+      <c r="C72" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="13"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="13" t="s">
+      <c r="B73" s="17"/>
+      <c r="C73" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="13"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="17"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="E59:E66"/>
-    <mergeCell ref="F59:F66"/>
-    <mergeCell ref="G59:G66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="E67:E74"/>
-    <mergeCell ref="F67:F74"/>
-    <mergeCell ref="G67:G74"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="E43:E50"/>
-    <mergeCell ref="F43:F50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F27:F34"/>
-    <mergeCell ref="G27:G34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="G19:G26"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="G3:G10"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="G19:G26"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F27:F34"/>
+    <mergeCell ref="G27:G34"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="F43:F50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="E67:E74"/>
+    <mergeCell ref="F67:F74"/>
+    <mergeCell ref="G67:G74"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="E59:E66"/>
+    <mergeCell ref="F59:F66"/>
+    <mergeCell ref="G59:G66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2205,25 +2498,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBB3560-A071-494D-A610-DDD46090D92B}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2241,15 +2534,15 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="28">
+    <row r="3" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2258,571 +2551,1191 @@
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="5"/>
+    <row r="4" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="32"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="32"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="32"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="30"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="28">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29"/>
-      <c r="B9" s="5"/>
+    <row r="9" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" ht="106.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
-      <c r="B10" s="5"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="32"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="32"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="28">
+      <c r="A13" s="22">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" ht="132.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="29"/>
-      <c r="B15" s="5"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="23"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="32"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="32"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" ht="93.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="28">
+      <c r="A18" s="22">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="5"/>
+    <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="23"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" ht="132.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="5"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="23"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="32"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="29"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="32"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="28">
+      <c r="A23" s="22">
         <v>5</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="29"/>
-      <c r="B24" s="5"/>
+    <row r="24" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="23"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="132.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="29"/>
-      <c r="B25" s="5"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="23"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="29"/>
-      <c r="B26" s="5"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="23"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="32"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="30"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="28">
+      <c r="A28" s="22">
         <v>6</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="29"/>
-      <c r="B29" s="5"/>
+    <row r="29" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="23"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" ht="119.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="29"/>
-      <c r="B30" s="5"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="23"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="29"/>
-      <c r="B31" s="5"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="23"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="32"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="28">
+      <c r="A33" s="22">
         <v>7</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="29"/>
-      <c r="B34" s="5"/>
+    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="23"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="32"/>
-    </row>
-    <row r="35" spans="1:7" ht="119.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="29"/>
-      <c r="B35" s="5"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="23"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="29"/>
-      <c r="B36" s="5"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="23"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="32"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="30"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28">
+    <row r="38" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="22">
         <v>8</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="29"/>
-      <c r="B39" s="5"/>
+    <row r="39" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="23"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="32"/>
-    </row>
-    <row r="40" spans="1:7" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="29"/>
-      <c r="B40" s="5"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="23"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="32"/>
-    </row>
-    <row r="41" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="29"/>
-      <c r="B41" s="5"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="23"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="32"/>
-    </row>
-    <row r="42" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="23" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="24"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G13:G17"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="G3:G7"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBD8945-37F7-4AFF-8C8B-F146FB647D6B}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="11.453125" style="37"/>
+    <col min="3" max="3" width="16.90625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" style="37" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="H25:H31"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="A11:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35218DF0-DBC9-4581-A14D-3D15F42BA30C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\Shopee_AutoTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143F04F2-B300-471C-BDBB-DBA4591C8F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA658607-DBB9-40D9-8A31-4D9896AFF92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="3" xr2:uid="{9A187316-C61B-48B7-9243-42F05AD8559C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{9A187316-C61B-48B7-9243-42F05AD8559C}"/>
   </bookViews>
   <sheets>
-    <sheet name="THANH TOÁN" sheetId="1" r:id="rId1"/>
-    <sheet name="XEM TRẠNG THÁI ĐƠN HÀNG" sheetId="3" r:id="rId2"/>
-    <sheet name="ĐĂNG KÝ" sheetId="4" r:id="rId3"/>
-    <sheet name="TÌM KIẾM" sheetId="5" r:id="rId4"/>
+    <sheet name="ĐĂNG KÝ" sheetId="4" r:id="rId1"/>
+    <sheet name="ĐĂNG NHẬP" sheetId="7" r:id="rId2"/>
+    <sheet name="TÌM KIẾM" sheetId="5" r:id="rId3"/>
+    <sheet name="GIỎ HÀNG" sheetId="6" r:id="rId4"/>
+    <sheet name="THANH TOÁN" sheetId="1" r:id="rId5"/>
+    <sheet name="XEM ĐƠN HÀNG" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="320">
   <si>
     <t>5. Chức năng thanh toán : KỊCH BẢN KIỂM THỬ</t>
   </si>
@@ -528,13 +530,538 @@
   <si>
     <t>Thông báo"Số điện thoại không hợp lệ"
 Nút Tiếp theo bị khóa, không đăng ký được tài khoản shopee</t>
+  </si>
+  <si>
+    <t>Trạng thái (pass/failed)</t>
+  </si>
+  <si>
+    <t>1. Tìm kiếm với dữ liệu trống / khoảng trắng</t>
+  </si>
+  <si>
+    <t>1. Mở trang Shopee</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Shopee</t>
+  </si>
+  <si>
+    <t>2. Nhập dữ liệu tìm kiếm</t>
+  </si>
+  <si>
+    <t>“” / “ “</t>
+  </si>
+  <si>
+    <t>Để trống ô tìm kiếm</t>
+  </si>
+  <si>
+    <t>3. Nhấn vào biểu tượng tìm kiếm</t>
+  </si>
+  <si>
+    <t>Button Search</t>
+  </si>
+  <si>
+    <t>Không tìm thấy kết quả nào</t>
+  </si>
+  <si>
+    <t>Kết quả hiện ra theo gợi ý ẩn trên thanh tìm kiếm của Shopee</t>
+  </si>
+  <si>
+    <t>2. Tìm kiếm với từ khóa không hợp lệ (chữ, số, ký tự đặc biệt kết hợp thành chuỗi vô nghĩa)</t>
+  </si>
+  <si>
+    <t>"ajdfghjcvb" / "dfg686@$%"</t>
+  </si>
+  <si>
+    <t>Hiển thị dữ liệu nhập trên thanh tìm kiếm</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách sản phẩm ngẫu nhiên</t>
+  </si>
+  <si>
+    <t>3. Tìm kiếm với chuỗi có độ dài lớn hơn 128 ký tự</t>
+  </si>
+  <si>
+    <t>đôi dép là một phụ kiện đơn giản nhưng vô cùng thiết yếu trong cuộc sống hàng ngày của chúng ta. với nhiều kiểu dáng và chất liệu khác nhau</t>
+  </si>
+  <si>
+    <t>Hiển thị dữ liệu nhập trên thanh tìm kiếm bị cắt bớt để đủ 128 ký tự</t>
+  </si>
+  <si>
+    <t>Hiện ra các kết quả tìm kiếm cho dép</t>
+  </si>
+  <si>
+    <t>Hiện ra shop liên quan đến dép và các kết quả tìm kiếm cho dép</t>
+  </si>
+  <si>
+    <t>4. Tìm kiếm với tên shop không tồn tại</t>
+  </si>
+  <si>
+    <t>2. Nhập dữ liệu tìm kiếm (tên shop)</t>
+  </si>
+  <si>
+    <t>Boxiiii</t>
+  </si>
+  <si>
+    <t>3. Nhấn vào biểu tượng shop gợi ý bên dưới thanh tìm kiếm</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Không tìm thấy kết quả</t>
+  </si>
+  <si>
+    <t>1. Tìm kiếm với từ khóa hợp lệ</t>
+  </si>
+  <si>
+    <t>"Áo sơ mi"</t>
+  </si>
+  <si>
+    <t>Hiện ra các kết quả tìm kiếm cho áo sơ mi</t>
+  </si>
+  <si>
+    <t>Hiện ra shop liên quan đến áo sơ mi và các kết quả tìm kiếm cho áo sơ mi</t>
+  </si>
+  <si>
+    <t>2. Tìm kiếm với từ khóa kèm số hợp lệ</t>
+  </si>
+  <si>
+    <t>"1 áo len"</t>
+  </si>
+  <si>
+    <t>Hiện ra các kết quả tìm kiếm cho áo len</t>
+  </si>
+  <si>
+    <t>Hiện ra shop liên quan đến áo len và các kết quả tìm kiếm cho áo len</t>
+  </si>
+  <si>
+    <t>3. Tìm kiếm với từ khóa trùng lặp</t>
+  </si>
+  <si>
+    <t>"áo áo áo"</t>
+  </si>
+  <si>
+    <t>Hiện ra các kết quả tìm kiếm liên quan đến áo</t>
+  </si>
+  <si>
+    <t>Hiện ra shop liên quan đến áo và các kết quả tìm kiếm cho các loại áo</t>
+  </si>
+  <si>
+    <t>4. Tìm kiếm với tên shop có tồn tại</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>Hiện ra các shop liên quan</t>
+  </si>
+  <si>
+    <t>TH1</t>
+  </si>
+  <si>
+    <t>TH2</t>
+  </si>
+  <si>
+    <t>TH3</t>
+  </si>
+  <si>
+    <t>TH4</t>
+  </si>
+  <si>
+    <t>TH5</t>
+  </si>
+  <si>
+    <t>TH6</t>
+  </si>
+  <si>
+    <t>TH7</t>
+  </si>
+  <si>
+    <t>TH8</t>
+  </si>
+  <si>
+    <t>Số đơn hàng</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>CTT</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>CGH</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>ĐH</t>
+  </si>
+  <si>
+    <t>THHT</t>
+  </si>
+  <si>
+    <t>Số luật</t>
+  </si>
+  <si>
+    <t>Hiển thị đơn hàng đúng với từng trạng thái</t>
+  </si>
+  <si>
+    <t>Thông báo không có đơn hàng</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Địa chỉ nhận hàng(bắt buộc)</t>
+  </si>
+  <si>
+    <t>Voucher của shop</t>
+  </si>
+  <si>
+    <t>Lời nhắn</t>
+  </si>
+  <si>
+    <t>Đơn vị vận chuyển(bắt buộc)</t>
+  </si>
+  <si>
+    <t>Voucher Shopee</t>
+  </si>
+  <si>
+    <t>Shopee Xu</t>
+  </si>
+  <si>
+    <t>PT thanh toán(bắt buộc)</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Đặt hàng thành công</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi (chưa cập nhật địa chỉ nhận hàng)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miền hợp lệ : </t>
+  </si>
+  <si>
+    <t>Nhỏ hơn 128 kí tự</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ khoá hợp lệ kèm số </t>
+  </si>
+  <si>
+    <t>Tên shop tồn tại</t>
+  </si>
+  <si>
+    <t>Miền không hợp lệ</t>
+  </si>
+  <si>
+    <t>Lớn hơn 128 kí tự</t>
+  </si>
+  <si>
+    <t>Tên shop không tồn tại</t>
+  </si>
+  <si>
+    <t>Khoảng trắng,dữ liệu trống, icon</t>
+  </si>
+  <si>
+    <t>Từ khoá trùng lặp</t>
+  </si>
+  <si>
+    <t>Icon, kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Chọn phân loại</t>
+  </si>
+  <si>
+    <t>0 &lt; Số lượng &lt;= max</t>
+  </si>
+  <si>
+    <t>Hành Động</t>
+  </si>
+  <si>
+    <t>Sản phẩm đã được thêm vào Giỏ hàng</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn phân loại hàng</t>
+  </si>
+  <si>
+    <t>(pass/failed)</t>
+  </si>
+  <si>
+    <t>1. Chọn phân loại, số lượng hợp lệ thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Mở trang chi tiết của một sản phẩm</t>
+  </si>
+  <si>
+    <t>https://s.shopee.vn/g5Ykw4bB2</t>
+  </si>
+  <si>
+    <t>2. Chọn phân loại</t>
+  </si>
+  <si>
+    <t>"Xanh", "M"</t>
+  </si>
+  <si>
+    <t>3. Thay đổi số lượng</t>
+  </si>
+  <si>
+    <t>"3"</t>
+  </si>
+  <si>
+    <t>4. Nhấn nút thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Button Add to Cart</t>
+  </si>
+  <si>
+    <t>2. Chọn phân loại nhưng số lượng không hợp lệ thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>"0" / "451"</t>
+  </si>
+  <si>
+    <t>3. Không chọn phân loại, số lượng bất kỳ thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>2. Không chọn phân loại</t>
+  </si>
+  <si>
+    <t>4. Thay đổi số lượng</t>
+  </si>
+  <si>
+    <t>"5"</t>
+  </si>
+  <si>
+    <t>5. Nhấn nút thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Chỉ cho được 450 sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Tự động nhảy số lượng về 450, thêm giỏ hàng thành công</t>
+  </si>
+  <si>
+    <t>Thông báo :Vui lòng chọn Phân loại hàng</t>
+  </si>
+  <si>
+    <t>Thông báo :Vui lòng chọn Phân loại hàng, không thêm vào giỏ hàng được</t>
+  </si>
+  <si>
+    <t>Mã Test Case</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Điều kiện tiền đề</t>
+  </si>
+  <si>
+    <t>Bước Thực Hiện</t>
+  </si>
+  <si>
+    <t>Kết Quả Mong Đợi</t>
+  </si>
+  <si>
+    <t>Trạng Thái</t>
+  </si>
+  <si>
+    <t>Trường hợp đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Đăng nhập với tài khoản và mật khẩu hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Hệ thống Shopee đang hoạt động và truy cập được.</t>
+  </si>
+  <si>
+    <t>2. Người dùng đã có tài khoản hợp lệ trong hệ thống Shopee.</t>
+  </si>
+  <si>
+    <t>1. Truy cập trang web Shopee.</t>
+  </si>
+  <si>
+    <t>2. Nhập tài khoản hợp lệ vào ô "Email/Số điện thoại/Tên đăng nhập".</t>
+  </si>
+  <si>
+    <t>3. Nhập mật khẩu hợp lệ vào ô "Mật khẩu".</t>
+  </si>
+  <si>
+    <t>4. Nhấp vào nút "Đăng nhập".</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng đến trang chủ của người dùng.</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Đăng nhập bằng tài khoản Facebook</t>
+  </si>
+  <si>
+    <t>2. Người dùng có tài khoản shopee hợp lệ đã liên kết với Facebook.</t>
+  </si>
+  <si>
+    <t>2. Nhấp vào nút "Facebook".</t>
+  </si>
+  <si>
+    <t>3. Làm theo hướng dẫn đăng nhập của Facebook nếu chưa đăng nhập sẵn trên trình duyệt.</t>
+  </si>
+  <si>
+    <t>Hệ thống tự động đăng nhập vào Shopee bằng tài khoản Facebook.</t>
+  </si>
+  <si>
+    <t>Đăng nhập bằng tài khoản Google</t>
+  </si>
+  <si>
+    <t>2. Người dùng có tài khoản shopee hợp lệ đã liên kết với Google.</t>
+  </si>
+  <si>
+    <t>2. Nhấp vào nút "Facebook" hoặc "Google".</t>
+  </si>
+  <si>
+    <t>3. Làm theo hướng dẫn đăng nhập của tài khoản Google nếu chưa đăng nhập sẵn trên trình duyệt.</t>
+  </si>
+  <si>
+    <t>Hệ thống tự động đăng nhập vào Shopee bằng tài khoản Google.</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Đăng nhập với SMS</t>
+  </si>
+  <si>
+    <t>2. Người dùng có tài khoản shopee hợp lệ đã thêm số điện thoại là số điện thoại dùng để đăng nhập.</t>
+  </si>
+  <si>
+    <t>1. Truy cập trang đăng nhập của Shopee.</t>
+  </si>
+  <si>
+    <t>2. Click vào dòng chữ “Đăng nhập với SMS”.</t>
+  </si>
+  <si>
+    <t>3. Nhập số điện thoại vào ô “Số điện thoại”.</t>
+  </si>
+  <si>
+    <t>4. Click vào nút “Tiếp theo”.</t>
+  </si>
+  <si>
+    <t>5. Xác minh không phải là người máy.</t>
+  </si>
+  <si>
+    <t>6. Nếu người dùng muốn gửi mã xác thực qua Zalo, ấn vào nút “Gửi đến Zalo”. Nếu không, ấn vào nút “Các phương pháp khác” để nhận mã xác thực qua tin nhắn hoặc cuộc gọi qua sim.</t>
+  </si>
+  <si>
+    <t>7. Người nhận nhập mã xác thực nhận được, sau đó ấn nút “Kế tiếp”.</t>
+  </si>
+  <si>
+    <t>Người dùng được chuyển hướng đến trang chủ Shopee.</t>
+  </si>
+  <si>
+    <t>Trường hợp đăng nhập thất bại</t>
+  </si>
+  <si>
+    <t>Email/Số điện thoại/Tên đăng nhập không đúng</t>
+  </si>
+  <si>
+    <t>2. Nhập tài khoản không hợp lệ vào ô "Email/Số điện thoại/Tên đăng nhập".</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi "Tên tài khoản của bạn hoặc Mật khẩu không đúng, vui lòng thử lại".</t>
+  </si>
+  <si>
+    <t>Đăng nhập với mật khẩu không đúng</t>
+  </si>
+  <si>
+    <t>3. Nhập mật khẩu không hợp lệ vào ô "Mật khẩu".</t>
+  </si>
+  <si>
+    <t>Bỏ trống tài khoản</t>
+  </si>
+  <si>
+    <t>2. Bỏ trống ô "Email/Số điện thoại/Tên đăng nhập".</t>
+  </si>
+  <si>
+    <t>Nút đăng nhập bị vô hiệu hóa</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>Bỏ trống mật khẩu</t>
+  </si>
+  <si>
+    <t>3. Bỏ trống ô "Mật khẩu".</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>Bỏ trống tài khoản và mật khẩu</t>
+  </si>
+  <si>
+    <t>2. Bỏ trống ô "Email/Số điện thoại/Tên đăng nhập" và ô "Mật khẩu".</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Email/Số điện thoại/Tên đăng nhập sai định dạng</t>
+  </si>
+  <si>
+    <t>2. Nhập tài khoản sai định dạng vào ô "Email/Số điện thoại/Tên đăng nhập".</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi "Đăng nhập KHÔNG thành công. Bạn vui lòng thử lại hoặc đăng nhập bằng cách khác nhé!".</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công, chuyển đến trang chủ</t>
+  </si>
+  <si>
+    <t>Nhập tay số điện thoại,thực hiện xác minh, nhập các mã xác thực =&gt; chương trình không thể tự dộng nhập mã, số điện thoại mà phải có sự can thiệp của con người</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi "Tên tài khoản của bạn hoặc Mật khẩu không đúng, vui lòng thử lại".Đăng nhập thất bại</t>
+  </si>
+  <si>
+    <t>Đăng nhập thất bại</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi "Tên tài khoản của bạn hoặc Mật khẩu không đúng, vui lòng thử lại".Đăng nhập thất bại</t>
+  </si>
+  <si>
+    <t>Nút đăng nhập bị vô hiệu hóa, đăng nhập thất bại</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -561,28 +1088,81 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,8 +1211,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -939,11 +1531,286 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -981,6 +1848,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -999,14 +1875,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1014,90 +1890,323 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1429,11 +2538,2282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7622A87D-E9C2-4672-8DE8-2CB1B5C09046}">
-  <dimension ref="A1:G74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBD8945-37F7-4AFF-8C8B-F146FB647D6B}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="11.453125" style="60"/>
+    <col min="3" max="3" width="16.90625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="60" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="60" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" style="60" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="59"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="58"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="58"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="58"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="58"/>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="54"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="54"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="54"/>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="54"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="54"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="54"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="H25:H31"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="G32:G34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06043BA8-C247-4D00-975E-9D2D3F88163B}">
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F10"/>
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.81640625" defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="115" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="115" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+    </row>
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="120" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="122" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="120" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" s="122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="123"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="125"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125"/>
+    </row>
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="123"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="125"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="125"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="129"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="129"/>
+    </row>
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="121" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="125"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="125"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="126"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="129"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="129"/>
+    </row>
+    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="125"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+    </row>
+    <row r="12" spans="1:7" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="126"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" s="129"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="129"/>
+    </row>
+    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="120" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="120" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="122" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="121" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="121" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="125"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+    </row>
+    <row r="15" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+    </row>
+    <row r="16" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="123"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="125"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+    </row>
+    <row r="17" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="125"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="125"/>
+    </row>
+    <row r="18" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="123"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="125"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="125"/>
+    </row>
+    <row r="19" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="126"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="129"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="129"/>
+    </row>
+    <row r="20" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="130" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="132"/>
+    </row>
+    <row r="21" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="120" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="122" t="s">
+        <v>316</v>
+      </c>
+      <c r="G21" s="122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="123"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="121" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+    </row>
+    <row r="23" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="123"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+    </row>
+    <row r="24" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="126"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="128" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+    </row>
+    <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="120" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="122" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25" s="122" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" s="122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="123"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+    </row>
+    <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="123"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="121" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+    </row>
+    <row r="28" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="126"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="128" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+    </row>
+    <row r="29" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="122" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" s="122" t="s">
+        <v>319</v>
+      </c>
+      <c r="G29" s="122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="123"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="121" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+    </row>
+    <row r="31" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="126"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="128" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+    </row>
+    <row r="32" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="119" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" s="120" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="122" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="122" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32" s="122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="123"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+    </row>
+    <row r="34" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="126"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="128" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+    </row>
+    <row r="35" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="119" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" s="120" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="122" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" s="122" t="s">
+        <v>319</v>
+      </c>
+      <c r="G35" s="122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="126"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="128" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+    </row>
+    <row r="37" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" s="120" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="E37" s="122" t="s">
+        <v>317</v>
+      </c>
+      <c r="F37" s="122" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" s="122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="123"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="121" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+    </row>
+    <row r="39" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="123"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+    </row>
+    <row r="40" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="126"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="128" t="s">
+        <v>271</v>
+      </c>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="G7:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35218DF0-DBC9-4581-A14D-3D15F42BA30C}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="66" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="66" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" style="66" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" style="66"/>
+    <col min="9" max="9" width="21.7265625" style="66" customWidth="1"/>
+    <col min="10" max="10" width="20" style="66" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="I2" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72">
+        <v>1</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="76"/>
+      <c r="B4" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="76"/>
+      <c r="I4" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77"/>
+      <c r="B5" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="77"/>
+      <c r="I5" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72">
+        <v>2</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="76"/>
+      <c r="B8" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="77"/>
+      <c r="B9" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+    </row>
+    <row r="11" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="72">
+        <v>3</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="76"/>
+      <c r="B12" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="76"/>
+    </row>
+    <row r="13" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="77"/>
+      <c r="B13" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="77"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+    </row>
+    <row r="15" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="72">
+        <v>4</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="76"/>
+      <c r="B16" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="76"/>
+    </row>
+    <row r="17" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="77"/>
+      <c r="B17" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="77"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="72">
+        <v>1</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="76"/>
+      <c r="B26" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="76"/>
+    </row>
+    <row r="27" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="77"/>
+      <c r="B27" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="77"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
+    </row>
+    <row r="29" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="72">
+        <v>2</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="76"/>
+      <c r="B30" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="76"/>
+    </row>
+    <row r="31" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="77"/>
+      <c r="B31" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="77"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+    </row>
+    <row r="33" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="72">
+        <v>3</v>
+      </c>
+      <c r="B33" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="76"/>
+      <c r="B34" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="76"/>
+    </row>
+    <row r="35" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="77"/>
+      <c r="B35" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="77"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="80"/>
+    </row>
+    <row r="37" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="72">
+        <v>4</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="76"/>
+      <c r="B38" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="76"/>
+    </row>
+    <row r="39" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="77"/>
+      <c r="B39" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:F9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{BCE0EC56-859B-4AA1-891C-F1D49ACFCB5F}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{B3C01F21-6E9E-4703-A19B-18D1ABB42A0A}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{121912B1-75E6-4D7B-AE64-A115BDBD6797}"/>
+    <hyperlink ref="C25" r:id="rId4" xr:uid="{73F11D97-227A-4A8E-81A6-4B461BC8C23E}"/>
+    <hyperlink ref="C29" r:id="rId5" xr:uid="{8847B1DD-51F4-425A-B3D8-57153A3BF7D9}"/>
+    <hyperlink ref="C33" r:id="rId6" xr:uid="{F2289312-47CB-420E-930B-36B84A1ECAEA}"/>
+    <hyperlink ref="C37" r:id="rId7" xr:uid="{690E186B-DDC0-430C-971D-FE4078245E1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EC96F9-9D64-45A5-B343-8B9D17024B52}">
+  <dimension ref="A2:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="4" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="91">
+        <v>1</v>
+      </c>
+      <c r="K3" s="91">
+        <v>2</v>
+      </c>
+      <c r="L3" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="93" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="107"/>
+      <c r="I5" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="108">
+        <v>1</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+    </row>
+    <row r="7" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="109"/>
+      <c r="B7" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="109"/>
+      <c r="I7" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="95"/>
+    </row>
+    <row r="8" spans="1:12" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="109"/>
+      <c r="B8" s="100" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="109"/>
+      <c r="I8" s="92" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="93" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A9" s="110"/>
+      <c r="B9" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="110"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="107"/>
+    </row>
+    <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="108">
+        <v>2</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="111" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="109"/>
+      <c r="B12" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="109"/>
+    </row>
+    <row r="13" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="109"/>
+      <c r="B13" s="100" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="109"/>
+    </row>
+    <row r="14" spans="1:12" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A14" s="110"/>
+      <c r="B14" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="110"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+    </row>
+    <row r="16" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="108">
+        <v>3</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="109"/>
+      <c r="B17" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="99"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="109"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="109"/>
+      <c r="B18" s="100" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="109"/>
+    </row>
+    <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A19" s="110"/>
+      <c r="B19" s="100" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="110"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{A7489339-62C5-4C9F-8BB1-1142BC2425EC}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{DC66114B-D775-46CD-9962-6E62D3B0FFA2}"/>
+    <hyperlink ref="C16" r:id="rId3" xr:uid="{ECE35144-C3A3-4C1F-8102-57B0685BEC1A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7622A87D-E9C2-4672-8DE8-2CB1B5C09046}">
+  <dimension ref="A1:Q74"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.26953125" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1447,18 +4827,45 @@
     <col min="8" max="8" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1480,12 +4887,39 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13">
+      <c r="I2" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="J2" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1494,110 +4928,326 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17"/>
+      <c r="I3" s="46">
+        <v>2</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="17"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="I4" s="46">
+        <v>3</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="I5" s="46">
+        <v>4</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="17"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="I6" s="46">
+        <v>5</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="17"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="I7" s="46">
+        <v>6</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="I8" s="46">
+        <v>7</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="I9" s="46">
+        <v>8</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="I10" s="46">
+        <v>9</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="N10" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q10" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="16">
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1606,106 +5256,106 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17"/>
+    <row r="12" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="17"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="13">
+      <c r="A19" s="16">
         <v>3</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1714,106 +5364,106 @@
       <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="13">
+      <c r="A27" s="16">
         <v>4</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1822,104 +5472,104 @@
       <c r="D27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="14"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="14"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="15"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="13">
+      <c r="A35" s="16">
         <v>5</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1928,106 +5578,106 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="14"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="14"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="13">
+      <c r="A43" s="16">
         <v>6</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2036,104 +5686,104 @@
       <c r="D43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="14"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="14"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="5"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="13">
+      <c r="A51" s="16">
         <v>7</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -2142,102 +5792,102 @@
       <c r="D51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="14"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="5"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="14"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="14"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="5"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="5"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
     </row>
     <row r="59" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="13">
+      <c r="A59" s="16">
         <v>8</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -2246,276 +5896,313 @@
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="14"/>
-      <c r="B60" s="17"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="14"/>
-      <c r="B61" s="17"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="14"/>
-      <c r="B62" s="17"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="5"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="5"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="13">
+      <c r="A67" s="16">
         <v>9</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="5"/>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="14"/>
-      <c r="B68" s="17"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="5"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="5"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="5"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="5"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="5"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="15"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="E59:E66"/>
+    <mergeCell ref="F59:F66"/>
+    <mergeCell ref="G59:G66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="E67:E74"/>
+    <mergeCell ref="F67:F74"/>
+    <mergeCell ref="G67:G74"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="F43:F50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F27:F34"/>
+    <mergeCell ref="G27:G34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="G19:G26"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="G3:G10"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="G19:G26"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F27:F34"/>
-    <mergeCell ref="G27:G34"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="E43:E50"/>
-    <mergeCell ref="F43:F50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="E67:E74"/>
-    <mergeCell ref="F67:F74"/>
-    <mergeCell ref="G67:G74"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="E59:E66"/>
-    <mergeCell ref="F59:F66"/>
-    <mergeCell ref="G59:G66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBB3560-A071-494D-A610-DDD46090D92B}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="9.36328125" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" customWidth="1"/>
+    <col min="12" max="12" width="9.36328125" customWidth="1"/>
+    <col min="13" max="13" width="7.81640625" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" customWidth="1"/>
+    <col min="17" max="17" width="7.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="I1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2537,12 +6224,39 @@
       <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22">
+      <c r="I2" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="43">
+        <v>0</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2551,1191 +6265,663 @@
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
+      <c r="I3" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="26"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23"/>
-      <c r="B5" s="26"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="I4" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="38">
+        <v>7</v>
+      </c>
+      <c r="K4" s="38">
+        <v>1</v>
+      </c>
+      <c r="L4" s="38">
+        <v>1</v>
+      </c>
+      <c r="M4" s="38">
+        <v>1</v>
+      </c>
+      <c r="N4" s="38">
+        <v>1</v>
+      </c>
+      <c r="O4" s="38">
+        <v>1</v>
+      </c>
+      <c r="P4" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="26"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="32"/>
+      <c r="I5" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="32"/>
+      <c r="I6" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22">
+    <row r="8" spans="1:17" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="25">
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
+    <row r="9" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="26"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" ht="53.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="26"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="26"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:7" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22">
+    <row r="13" spans="1:17" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="25">
         <v>3</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="23"/>
-      <c r="B14" s="26"/>
+    <row r="14" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="26"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:17" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="26"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="26"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" ht="93.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="22">
+      <c r="A18" s="25">
         <v>4</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="23"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="22">
+      <c r="A23" s="25">
         <v>5</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="23"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="23"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="23"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="22">
+      <c r="A28" s="25">
         <v>6</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="23"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="23"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="22">
+      <c r="A33" s="25">
         <v>7</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="23"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="23"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="23"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="22">
+      <c r="A38" s="25">
         <v>8</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="23"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="23"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="23"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="24"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D42" s="12"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="30"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G13:G17"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="G3:G7"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBD8945-37F7-4AFF-8C8B-F146FB647D6B}">
-  <dimension ref="A1:I37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="11.453125" style="37"/>
-    <col min="3" max="3" width="16.90625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" style="37" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="37" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" style="37" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="42"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="42"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="43"/>
-    </row>
-    <row r="17" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="43"/>
-    </row>
-    <row r="23" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-    </row>
-    <row r="24" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-    </row>
-    <row r="30" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
-    </row>
-    <row r="31" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-    </row>
-    <row r="34" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="H25:H31"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="A11:H11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35218DF0-DBC9-4581-A14D-3D15F42BA30C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\Shopee_AutoTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA658607-DBB9-40D9-8A31-4D9896AFF92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B16155E-49B1-4FCF-BD86-177164117144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{9A187316-C61B-48B7-9243-42F05AD8559C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{9A187316-C61B-48B7-9243-42F05AD8559C}"/>
   </bookViews>
   <sheets>
     <sheet name="ĐĂNG KÝ" sheetId="4" r:id="rId1"/>
@@ -1162,7 +1162,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,6 +1220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,78 +1854,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1961,52 +1895,199 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2018,82 +2099,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2102,106 +2132,82 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2541,552 +2547,594 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBD8945-37F7-4AFF-8C8B-F146FB647D6B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="11.453125" style="60"/>
-    <col min="3" max="3" width="16.90625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="60" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" style="60" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="60"/>
+    <col min="1" max="2" width="11.42578125" style="32"/>
+    <col min="3" max="3" width="16.92578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.2109375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="16.92578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="17.0703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="15.640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="13.640625" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:9" ht="28.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="59"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="59"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="61" t="s">
+      <c r="B2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+    <row r="4" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="62" t="s">
+    <row r="5" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="62" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="62" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="63"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
+      <c r="I7" s="30"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+    </row>
+    <row r="12" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+    <row r="13" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="58"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56" t="s">
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56" t="s">
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="58"/>
-    </row>
-    <row r="17" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56" t="s">
+      <c r="H16" s="67"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-    </row>
-    <row r="18" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56" t="s">
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+    </row>
+    <row r="19" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="58"/>
-    </row>
-    <row r="20" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56" t="s">
+      <c r="H19" s="67"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56" t="s">
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-    </row>
-    <row r="22" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="58"/>
-    </row>
-    <row r="23" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56" t="s">
+      <c r="H22" s="67"/>
+    </row>
+    <row r="23" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-    </row>
-    <row r="24" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56" t="s">
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="69" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56" t="s">
+    <row r="26" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56" t="s">
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="69"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="54"/>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56" t="s">
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="69"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="54"/>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56" t="s">
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="69"/>
+    </row>
+    <row r="29" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56" t="s">
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="69"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="54"/>
-    </row>
-    <row r="31" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="56" t="s">
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="69"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="54"/>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="69"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="58" t="s">
+      <c r="G32" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="58" t="s">
+      <c r="H32" s="67" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="56" t="s">
+    <row r="33" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-    </row>
-    <row r="34" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56" t="s">
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+    </row>
+    <row r="34" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="F35" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="67" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="56" t="s">
+    <row r="36" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="56" t="s">
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+    </row>
+    <row r="37" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="H25:H31"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A13:A15"/>
@@ -3094,49 +3142,7 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
     <mergeCell ref="H13:H15"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="H25:H31"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="G32:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3148,637 +3154,608 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.81640625" defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.78515625" defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.35546875" customWidth="1"/>
+    <col min="2" max="2" width="14.640625" customWidth="1"/>
+    <col min="3" max="3" width="19.78515625" customWidth="1"/>
+    <col min="4" max="4" width="23.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="131" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="132" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="132" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="132" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="116" t="s">
+    <row r="2" spans="1:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-    </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="119" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+    </row>
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="121" t="s">
+    <row r="4" spans="1:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="76"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125"/>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="76"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="125"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="126"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128" t="s">
+      <c r="E5" s="73"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="77"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="E6" s="129"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="129"/>
-    </row>
-    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="119" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="74"/>
+    </row>
+    <row r="7" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="123"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="121" t="s">
+    <row r="8" spans="1:7" ht="42.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="76"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="125"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="125"/>
-    </row>
-    <row r="9" spans="1:7" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="126"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128" t="s">
+      <c r="E8" s="73"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="77"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="129"/>
-    </row>
-    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="119" t="s">
+      <c r="E9" s="74"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="G10" s="122" t="s">
+      <c r="G10" s="72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="121" t="s">
+    <row r="11" spans="1:7" ht="40.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="76"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="125"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-    </row>
-    <row r="12" spans="1:7" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="126"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="1:7" ht="55.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="77"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="129"/>
-    </row>
-    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="119" t="s">
+      <c r="E12" s="74"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="74"/>
+    </row>
+    <row r="13" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="G13" s="122" t="s">
+      <c r="G13" s="72" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="123"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="121" t="s">
+    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="76"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="E14" s="125"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-    </row>
-    <row r="15" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="123"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121" t="s">
+      <c r="E14" s="73"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="73"/>
+    </row>
+    <row r="15" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="76"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="E15" s="125"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-    </row>
-    <row r="16" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="123"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121" t="s">
+      <c r="E15" s="73"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="76"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="E16" s="125"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
-    </row>
-    <row r="17" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="123"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121" t="s">
+      <c r="E16" s="73"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="76"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="E17" s="125"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="125"/>
-    </row>
-    <row r="18" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="123"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121" t="s">
+      <c r="E17" s="73"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="73"/>
+    </row>
+    <row r="18" spans="1:7" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="76"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="E18" s="125"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="125"/>
-    </row>
-    <row r="19" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="126"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128" t="s">
+      <c r="E18" s="73"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="73"/>
+    </row>
+    <row r="19" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="77"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="E19" s="129"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="129"/>
-    </row>
-    <row r="20" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="130" t="s">
+      <c r="E19" s="74"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="74"/>
+    </row>
+    <row r="20" spans="1:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="81" t="s">
         <v>295</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="132"/>
-    </row>
-    <row r="21" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="119" t="s">
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="E21" s="122" t="s">
+      <c r="E21" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="F21" s="122" t="s">
+      <c r="F21" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="122" t="s">
+      <c r="G21" s="72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="123"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="121" t="s">
+    <row r="22" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="76"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-    </row>
-    <row r="23" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="123"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="121" t="s">
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+    </row>
+    <row r="23" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="76"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-    </row>
-    <row r="24" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="126"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="128" t="s">
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+    </row>
+    <row r="24" spans="1:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="77"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-    </row>
-    <row r="25" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="119" t="s">
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+    </row>
+    <row r="25" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="E25" s="122" t="s">
+      <c r="E25" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="F25" s="122" t="s">
+      <c r="F25" s="72" t="s">
         <v>318</v>
       </c>
-      <c r="G25" s="122" t="s">
+      <c r="G25" s="72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="121" t="s">
+    <row r="26" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="76"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-    </row>
-    <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="123"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="121" t="s">
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+    </row>
+    <row r="27" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="76"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-    </row>
-    <row r="28" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="126"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="128" t="s">
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+    </row>
+    <row r="28" spans="1:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="77"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-    </row>
-    <row r="29" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="119" t="s">
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+    </row>
+    <row r="29" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="D29" s="121" t="s">
+      <c r="D29" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="E29" s="122" t="s">
+      <c r="E29" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="F29" s="122" t="s">
+      <c r="F29" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="G29" s="122" t="s">
+      <c r="G29" s="72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="123"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="121" t="s">
+    <row r="30" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="76"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-    </row>
-    <row r="31" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="126"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="128" t="s">
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+    </row>
+    <row r="31" spans="1:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="77"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-    </row>
-    <row r="32" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="119" t="s">
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+    </row>
+    <row r="32" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="C32" s="122" t="s">
+      <c r="C32" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="D32" s="121" t="s">
+      <c r="D32" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="122" t="s">
+      <c r="E32" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="F32" s="122" t="s">
+      <c r="F32" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="G32" s="122" t="s">
+      <c r="G32" s="72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="123"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="121" t="s">
+    <row r="33" spans="1:7" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="76"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-    </row>
-    <row r="34" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="126"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="128" t="s">
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+    </row>
+    <row r="34" spans="1:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="77"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="66" t="s">
         <v>306</v>
       </c>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-    </row>
-    <row r="35" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="119" t="s">
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+    </row>
+    <row r="35" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="122" t="s">
+      <c r="C35" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="D35" s="121" t="s">
+      <c r="D35" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="E35" s="122" t="s">
+      <c r="E35" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="F35" s="122" t="s">
+      <c r="F35" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="G35" s="122" t="s">
+      <c r="G35" s="72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="126"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="128" t="s">
+    <row r="36" spans="1:7" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="77"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-    </row>
-    <row r="37" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="119" t="s">
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+    </row>
+    <row r="37" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="B37" s="120" t="s">
+      <c r="B37" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="C37" s="122" t="s">
+      <c r="C37" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="D37" s="121" t="s">
+      <c r="D37" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="122" t="s">
+      <c r="E37" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="F37" s="122" t="s">
+      <c r="F37" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="G37" s="122" t="s">
+      <c r="G37" s="72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="123"/>
-      <c r="B38" s="124"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="121" t="s">
+    <row r="38" spans="1:7" ht="37.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="76"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-    </row>
-    <row r="39" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="123"/>
-      <c r="B39" s="124"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="121" t="s">
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+    </row>
+    <row r="39" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="76"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-    </row>
-    <row r="40" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="126"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="128" t="s">
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+    </row>
+    <row r="40" spans="1:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="77"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="G3:G6"/>
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="G21:G24"/>
     <mergeCell ref="F21:F24"/>
@@ -3790,15 +3767,44 @@
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="E13:E19"/>
     <mergeCell ref="G13:G19"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3808,656 +3814,656 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35218DF0-DBC9-4581-A14D-3D15F42BA30C}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="66" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="66" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" style="66" customWidth="1"/>
-    <col min="7" max="8" width="8.7265625" style="66"/>
-    <col min="9" max="9" width="21.7265625" style="66" customWidth="1"/>
-    <col min="10" max="10" width="20" style="66" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="66"/>
+    <col min="1" max="1" width="11.7109375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="12.35546875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="14.35546875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.2109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="37" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="37"/>
+    <col min="9" max="9" width="21.7109375" style="37" customWidth="1"/>
+    <col min="10" max="10" width="20" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="38" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="I2" s="71" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95"/>
+      <c r="I2" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="39" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72">
+    <row r="3" spans="1:10" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="90">
         <v>1</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="73" t="s">
+    <row r="4" spans="1:10" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="91"/>
+      <c r="B4" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="I4" s="71" t="s">
+      <c r="F4" s="91"/>
+      <c r="I4" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="39" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
-      <c r="B5" s="73" t="s">
+    <row r="5" spans="1:10" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="92"/>
+      <c r="B5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="I5" s="71" t="s">
+      <c r="F5" s="92"/>
+      <c r="I5" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="39" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-    </row>
-    <row r="7" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72">
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="43"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90">
         <v>2</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="76"/>
-      <c r="B8" s="81" t="s">
+    <row r="8" spans="1:10" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="91"/>
+      <c r="B8" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="76"/>
-    </row>
-    <row r="9" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="81" t="s">
+      <c r="F8" s="91"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="92"/>
+      <c r="B9" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="77"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="s">
+      <c r="F9" s="92"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-    </row>
-    <row r="11" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72">
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="90">
         <v>3</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="81" t="s">
+    <row r="12" spans="1:10" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="91"/>
+      <c r="B12" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="76"/>
-    </row>
-    <row r="13" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
-      <c r="B13" s="81" t="s">
+      <c r="F12" s="91"/>
+    </row>
+    <row r="13" spans="1:10" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="92"/>
+      <c r="B13" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="77"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+      <c r="F13" s="92"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80"/>
-    </row>
-    <row r="15" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="90">
         <v>4</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="76"/>
-      <c r="B16" s="81" t="s">
+    <row r="16" spans="1:10" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="91"/>
+      <c r="B16" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="76"/>
-    </row>
-    <row r="17" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
-      <c r="B17" s="81" t="s">
+      <c r="F16" s="91"/>
+    </row>
+    <row r="17" spans="1:6" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="92"/>
+      <c r="B17" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="77"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-    </row>
-    <row r="23" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="88" t="s">
+      <c r="F17" s="92"/>
+    </row>
+    <row r="18" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+    </row>
+    <row r="20" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+    </row>
+    <row r="21" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="F23" s="51" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+    <row r="24" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="72">
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+    </row>
+    <row r="25" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="90">
         <v>1</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="76"/>
-      <c r="B26" s="81" t="s">
+    <row r="26" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="91"/>
+      <c r="B26" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="76"/>
-    </row>
-    <row r="27" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77"/>
-      <c r="B27" s="81" t="s">
+      <c r="F26" s="91"/>
+    </row>
+    <row r="27" spans="1:6" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="92"/>
+      <c r="B27" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="84" t="s">
+      <c r="E27" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="F27" s="77"/>
-    </row>
-    <row r="28" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
+      <c r="F27" s="92"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81"/>
-    </row>
-    <row r="29" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="72">
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="90">
         <v>2</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="E29" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="72" t="s">
+      <c r="F29" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="76"/>
-      <c r="B30" s="81" t="s">
+    <row r="30" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="91"/>
+      <c r="B30" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="76"/>
-    </row>
-    <row r="31" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
-      <c r="B31" s="81" t="s">
+      <c r="F30" s="91"/>
+    </row>
+    <row r="31" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="92"/>
+      <c r="B31" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="83" t="s">
+      <c r="D31" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="E31" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="F31" s="77"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
+      <c r="F31" s="92"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
-    </row>
-    <row r="33" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="72">
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="90">
         <v>3</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="E33" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="76"/>
-      <c r="B34" s="81" t="s">
+    <row r="34" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="91"/>
+      <c r="B34" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="76"/>
-    </row>
-    <row r="35" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
-      <c r="B35" s="81" t="s">
+      <c r="F34" s="91"/>
+    </row>
+    <row r="35" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="92"/>
+      <c r="B35" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="F35" s="77"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78" t="s">
+      <c r="F35" s="92"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80"/>
-    </row>
-    <row r="37" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72">
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+    </row>
+    <row r="37" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="90">
         <v>4</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="72" t="s">
+      <c r="F37" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="76"/>
-      <c r="B38" s="81" t="s">
+    <row r="38" spans="1:6" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="91"/>
+      <c r="B38" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="83" t="s">
+      <c r="E38" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="76"/>
-    </row>
-    <row r="39" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="77"/>
-      <c r="B39" s="81" t="s">
+      <c r="F38" s="91"/>
+    </row>
+    <row r="39" spans="1:6" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="92"/>
+      <c r="B39" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="83" t="s">
+      <c r="E39" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="F39" s="77"/>
+      <c r="F39" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="F29:F31"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="F33:F35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{BCE0EC56-859B-4AA1-891C-F1D49ACFCB5F}"/>
@@ -4476,313 +4482,314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EC96F9-9D64-45A5-B343-8B9D17024B52}">
   <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="4" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="103" t="s">
+    <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="91">
+      <c r="J3" s="53">
         <v>1</v>
       </c>
-      <c r="K3" s="91">
+      <c r="K3" s="53">
         <v>2</v>
       </c>
-      <c r="L3" s="91">
+      <c r="L3" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="98" t="s">
+    <row r="4" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="I4" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="L4" s="55" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="105" t="s">
+    <row r="5" spans="1:12" ht="28.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
-      <c r="I5" s="92" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="I5" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="K5" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="93" t="s">
+      <c r="L5" s="55" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="108">
+    <row r="6" spans="1:12" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="111" t="s">
+      <c r="E6" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-    </row>
-    <row r="7" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="109"/>
-      <c r="B7" s="100" t="s">
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+    </row>
+    <row r="7" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="100"/>
+      <c r="B7" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="109"/>
-      <c r="I7" s="96" t="s">
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="100"/>
+      <c r="I7" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="J7" s="93" t="s">
+      <c r="J7" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="L7" s="95"/>
-    </row>
-    <row r="8" spans="1:12" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="109"/>
-      <c r="B8" s="100" t="s">
+      <c r="L7" s="57"/>
+    </row>
+    <row r="8" spans="1:12" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="100"/>
+      <c r="B8" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="109"/>
-      <c r="I8" s="92" t="s">
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="100"/>
+      <c r="I8" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="93" t="s">
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="55" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.35">
-      <c r="A9" s="110"/>
-      <c r="B9" s="100" t="s">
+    <row r="9" spans="1:12" ht="25" x14ac:dyDescent="0.4">
+      <c r="A9" s="101"/>
+      <c r="B9" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="110"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="105" t="s">
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="101"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
-    </row>
-    <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+    </row>
+    <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="99">
         <v>2</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="108" t="s">
+      <c r="F11" s="99" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="109"/>
-      <c r="B12" s="100" t="s">
+    <row r="12" spans="1:12" ht="24.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="100"/>
+      <c r="B12" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="109"/>
-    </row>
-    <row r="13" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="109"/>
-      <c r="B13" s="100" t="s">
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="100"/>
+    </row>
+    <row r="13" spans="1:12" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="100"/>
+      <c r="B13" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="109"/>
-    </row>
-    <row r="14" spans="1:12" ht="26.4" x14ac:dyDescent="0.35">
-      <c r="A14" s="110"/>
-      <c r="B14" s="100" t="s">
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="100"/>
+    </row>
+    <row r="14" spans="1:12" ht="25" x14ac:dyDescent="0.4">
+      <c r="A14" s="101"/>
+      <c r="B14" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="110"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="105" t="s">
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="101"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-    </row>
-    <row r="16" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108">
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+    </row>
+    <row r="16" spans="1:12" ht="61.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="99">
         <v>3</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="99" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="109"/>
-      <c r="B17" s="100" t="s">
+    <row r="17" spans="1:6" ht="24.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="100"/>
+      <c r="B17" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="109"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="109"/>
-      <c r="B18" s="100" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="100"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="100"/>
+      <c r="B18" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="109"/>
-    </row>
-    <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.35">
-      <c r="A19" s="110"/>
-      <c r="B19" s="100" t="s">
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="100"/>
+    </row>
+    <row r="19" spans="1:6" ht="25" x14ac:dyDescent="0.4">
+      <c r="A19" s="101"/>
+      <c r="B19" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="110"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:A14"/>
@@ -4792,12 +4799,11 @@
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{A7489339-62C5-4C9F-8BB1-1142BC2425EC}"/>
@@ -4813,59 +4819,59 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.26953125" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="33.65" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.35546875" customWidth="1"/>
+    <col min="3" max="3" width="14.0703125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.2109375" customWidth="1"/>
+    <col min="6" max="6" width="19.2109375" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="45" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="115"/>
+      <c r="I1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="21" t="s">
         <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4887,39 +4893,39 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="22">
         <v>1</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16">
+    <row r="3" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="107">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -4928,326 +4934,326 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="22">
         <v>2</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20"/>
+    <row r="4" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="108"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="I4" s="46">
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="I4" s="22">
         <v>3</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20"/>
+    <row r="5" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="108"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="I5" s="46">
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="I5" s="22">
         <v>4</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20"/>
+    <row r="6" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="108"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="46">
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="I6" s="22">
         <v>5</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20"/>
+    <row r="7" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="108"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="46">
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="I7" s="22">
         <v>6</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
+    <row r="8" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="108"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="I8" s="46">
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="I8" s="22">
         <v>7</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="Q8" s="39" t="s">
+      <c r="Q8" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20"/>
+    <row r="9" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="108"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="I9" s="46">
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="I9" s="22">
         <v>8</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="Q9" s="39" t="s">
+      <c r="Q9" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21"/>
+    <row r="10" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="109"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="I10" s="46">
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="I10" s="22">
         <v>9</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="L10" s="47" t="s">
+      <c r="L10" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="N10" s="47" t="s">
+      <c r="N10" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="O10" s="47" t="s">
+      <c r="O10" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="P10" s="47" t="s">
+      <c r="P10" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="Q10" s="48" t="s">
+      <c r="Q10" s="24" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16">
+    <row r="11" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="107">
         <v>2</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -5256,106 +5262,106 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20"/>
+    <row r="12" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="108"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+    </row>
+    <row r="13" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="108"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+    </row>
+    <row r="14" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="108"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="20"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+    </row>
+    <row r="15" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="108"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+    </row>
+    <row r="16" spans="1:17" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="108"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17"/>
-      <c r="B17" s="20"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+    </row>
+    <row r="17" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="108"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+    </row>
+    <row r="18" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="109"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="16">
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+    </row>
+    <row r="19" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="107">
         <v>3</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -5364,106 +5370,106 @@
       <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="17"/>
-      <c r="B20" s="20"/>
+    <row r="20" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="108"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+    </row>
+    <row r="21" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="108"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="20"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+    </row>
+    <row r="22" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="108"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="20"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+    </row>
+    <row r="23" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="108"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="20"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+    </row>
+    <row r="24" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="108"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="20"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+    </row>
+    <row r="25" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="108"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="21"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+    </row>
+    <row r="26" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="109"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="16">
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+    </row>
+    <row r="27" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="107">
         <v>4</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -5472,104 +5478,104 @@
       <c r="D27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="17"/>
-      <c r="B28" s="20"/>
+    <row r="28" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="108"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="17"/>
-      <c r="B29" s="20"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+    </row>
+    <row r="29" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="108"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="17"/>
-      <c r="B30" s="20"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+    </row>
+    <row r="30" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="108"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="20"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+    </row>
+    <row r="31" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="108"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="20"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+    </row>
+    <row r="32" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="108"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="20"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+    </row>
+    <row r="33" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="108"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="18"/>
-      <c r="B34" s="21"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+    </row>
+    <row r="34" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="109"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="16">
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+    </row>
+    <row r="35" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="107">
         <v>5</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -5578,106 +5584,106 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="20"/>
+    <row r="36" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="108"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="17"/>
-      <c r="B37" s="20"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+    </row>
+    <row r="37" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="108"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="20"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+    </row>
+    <row r="38" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="108"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="17"/>
-      <c r="B39" s="20"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+    </row>
+    <row r="39" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="108"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="17"/>
-      <c r="B40" s="20"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+    </row>
+    <row r="40" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="108"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+    </row>
+    <row r="41" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="108"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="18"/>
-      <c r="B42" s="21"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+    </row>
+    <row r="42" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="109"/>
+      <c r="B42" s="112"/>
       <c r="C42" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="16">
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+    </row>
+    <row r="43" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="107">
         <v>6</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -5686,104 +5692,104 @@
       <c r="D43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="17"/>
-      <c r="B44" s="20"/>
+    <row r="44" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="108"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="17"/>
-      <c r="B45" s="20"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+    </row>
+    <row r="45" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="108"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="17"/>
-      <c r="B46" s="20"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+    </row>
+    <row r="46" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="108"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="17"/>
-      <c r="B47" s="20"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+    </row>
+    <row r="47" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="108"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="17"/>
-      <c r="B48" s="20"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+    </row>
+    <row r="48" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="108"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="5"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="17"/>
-      <c r="B49" s="20"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+    </row>
+    <row r="49" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="108"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="18"/>
-      <c r="B50" s="21"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+    </row>
+    <row r="50" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="109"/>
+      <c r="B50" s="112"/>
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="16">
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+    </row>
+    <row r="51" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="107">
         <v>7</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -5792,102 +5798,102 @@
       <c r="D51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="107" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="17"/>
-      <c r="B52" s="20"/>
+    <row r="52" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="108"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="17"/>
-      <c r="B53" s="20"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+    </row>
+    <row r="53" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="108"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="5"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="17"/>
-      <c r="B54" s="20"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+    </row>
+    <row r="54" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="108"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="17"/>
-      <c r="B55" s="20"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+    </row>
+    <row r="55" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="108"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="5"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-    </row>
-    <row r="56" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="17"/>
-      <c r="B56" s="20"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+    </row>
+    <row r="56" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="108"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="5"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-    </row>
-    <row r="57" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="17"/>
-      <c r="B57" s="20"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+    </row>
+    <row r="57" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="108"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="18"/>
-      <c r="B58" s="21"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+    </row>
+    <row r="58" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="109"/>
+      <c r="B58" s="112"/>
       <c r="C58" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16">
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+    </row>
+    <row r="59" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="107">
         <v>8</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -5896,249 +5902,249 @@
       <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="17"/>
-      <c r="B60" s="20"/>
+    <row r="60" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="108"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-    </row>
-    <row r="61" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="17"/>
-      <c r="B61" s="20"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+    </row>
+    <row r="61" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="108"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="17"/>
-      <c r="B62" s="20"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+    </row>
+    <row r="62" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="108"/>
+      <c r="B62" s="111"/>
       <c r="C62" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-    </row>
-    <row r="63" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="17"/>
-      <c r="B63" s="20"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+    </row>
+    <row r="63" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="108"/>
+      <c r="B63" s="111"/>
       <c r="C63" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="5"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-    </row>
-    <row r="64" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="17"/>
-      <c r="B64" s="20"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+    </row>
+    <row r="64" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="108"/>
+      <c r="B64" s="111"/>
       <c r="C64" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-    </row>
-    <row r="65" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="17"/>
-      <c r="B65" s="20"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108"/>
+    </row>
+    <row r="65" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="108"/>
+      <c r="B65" s="111"/>
       <c r="C65" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-    </row>
-    <row r="66" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="18"/>
-      <c r="B66" s="21"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+    </row>
+    <row r="66" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="109"/>
+      <c r="B66" s="112"/>
       <c r="C66" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="5"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-    </row>
-    <row r="67" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="16">
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+    </row>
+    <row r="67" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="107">
         <v>9</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="5"/>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="17"/>
-      <c r="B68" s="20"/>
+    <row r="68" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="108"/>
+      <c r="B68" s="111"/>
       <c r="C68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-    </row>
-    <row r="69" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="17"/>
-      <c r="B69" s="20"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108"/>
+    </row>
+    <row r="69" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="108"/>
+      <c r="B69" s="111"/>
       <c r="C69" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="5"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-    </row>
-    <row r="70" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="17"/>
-      <c r="B70" s="20"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+    </row>
+    <row r="70" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="108"/>
+      <c r="B70" s="111"/>
       <c r="C70" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="5"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-    </row>
-    <row r="71" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="17"/>
-      <c r="B71" s="20"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+    </row>
+    <row r="71" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="108"/>
+      <c r="B71" s="111"/>
       <c r="C71" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="5"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-    </row>
-    <row r="72" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="17"/>
-      <c r="B72" s="20"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+    </row>
+    <row r="72" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="108"/>
+      <c r="B72" s="111"/>
       <c r="C72" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="5"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-    </row>
-    <row r="73" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="17"/>
-      <c r="B73" s="20"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+    </row>
+    <row r="73" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="108"/>
+      <c r="B73" s="111"/>
       <c r="C73" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="5"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-    </row>
-    <row r="74" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="18"/>
-      <c r="B74" s="21"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+    </row>
+    <row r="74" spans="1:7" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="109"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
+      <c r="E74" s="109"/>
+      <c r="F74" s="109"/>
+      <c r="G74" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="E59:E66"/>
-    <mergeCell ref="F59:F66"/>
-    <mergeCell ref="G59:G66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="E67:E74"/>
-    <mergeCell ref="F67:F74"/>
-    <mergeCell ref="G67:G74"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="E43:E50"/>
-    <mergeCell ref="F43:F50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F27:F34"/>
-    <mergeCell ref="G27:G34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="G19:G26"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="G3:G10"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="G19:G26"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F27:F34"/>
+    <mergeCell ref="G27:G34"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="F43:F50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="E67:E74"/>
+    <mergeCell ref="F67:F74"/>
+    <mergeCell ref="G67:G74"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="E59:E66"/>
+    <mergeCell ref="F59:F66"/>
+    <mergeCell ref="G59:G66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6148,61 +6154,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBB3560-A071-494D-A610-DDD46090D92B}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.640625" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="10" width="9.36328125" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" customWidth="1"/>
-    <col min="12" max="12" width="9.36328125" customWidth="1"/>
-    <col min="13" max="13" width="7.81640625" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" customWidth="1"/>
-    <col min="16" max="16" width="7.26953125" customWidth="1"/>
-    <col min="17" max="17" width="7.54296875" customWidth="1"/>
+    <col min="10" max="10" width="9.35546875" customWidth="1"/>
+    <col min="11" max="11" width="8.2109375" customWidth="1"/>
+    <col min="12" max="12" width="9.35546875" customWidth="1"/>
+    <col min="13" max="13" width="7.78515625" customWidth="1"/>
+    <col min="14" max="14" width="9.35546875" customWidth="1"/>
+    <col min="15" max="15" width="8.0703125" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="I1" s="40" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="130"/>
+      <c r="I1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -6224,39 +6230,39 @@
       <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="19">
         <v>0</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="25">
+    <row r="3" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="116">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="119" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6265,662 +6271,662 @@
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29"/>
+    <row r="4" spans="1:17" ht="25.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="117"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="32"/>
-      <c r="I4" s="44" t="s">
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="123"/>
+      <c r="I4" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="14">
         <v>7</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="14">
         <v>1</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="14">
         <v>1</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="14">
         <v>1</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="14">
         <v>1</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="14">
         <v>1</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="14">
         <v>1</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29"/>
+    <row r="5" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="117"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="32"/>
-      <c r="I5" s="42" t="s">
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="123"/>
+      <c r="I5" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
-      <c r="B6" s="29"/>
+    <row r="6" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="117"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="32"/>
-      <c r="I6" s="42" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="123"/>
+      <c r="I6" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-    </row>
-    <row r="7" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="125"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:17" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="25">
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="127"/>
+    </row>
+    <row r="8" spans="1:17" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="116">
         <v>2</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="119" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="122" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29"/>
+    <row r="9" spans="1:17" ht="25.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="117"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" ht="53.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="29"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="123"/>
+    </row>
+    <row r="10" spans="1:17" ht="50.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="117"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="26"/>
-      <c r="B11" s="29"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="123"/>
+    </row>
+    <row r="11" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="117"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="123"/>
+    </row>
+    <row r="12" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="125"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:17" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25">
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="127"/>
+    </row>
+    <row r="13" spans="1:17" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="116">
         <v>3</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="119" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="122" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="29"/>
+    <row r="14" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="117"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:17" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="26"/>
-      <c r="B15" s="29"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="123"/>
+    </row>
+    <row r="15" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="117"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="29"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="123"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="117"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="123"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="125"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:7" ht="93.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="25">
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+    </row>
+    <row r="18" spans="1:7" ht="93.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="116">
         <v>4</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="119" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="122" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="26"/>
-      <c r="B19" s="29"/>
+    <row r="19" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="117"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="26"/>
-      <c r="B20" s="29"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="123"/>
+    </row>
+    <row r="20" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="117"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="26"/>
-      <c r="B21" s="29"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="123"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="117"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="27"/>
-      <c r="B22" s="30"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="123"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="125"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="1:7" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25">
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="127"/>
+    </row>
+    <row r="23" spans="1:7" ht="111.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="116">
         <v>5</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="119" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="122" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="26"/>
-      <c r="B24" s="29"/>
+    <row r="24" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="117"/>
+      <c r="B24" s="120"/>
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="26"/>
-      <c r="B25" s="29"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="123"/>
+    </row>
+    <row r="25" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="117"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="26"/>
-      <c r="B26" s="29"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="123"/>
+    </row>
+    <row r="26" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="117"/>
+      <c r="B26" s="120"/>
       <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
-      <c r="B27" s="30"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="123"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="125"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="1:7" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="25">
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="127"/>
+    </row>
+    <row r="28" spans="1:7" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="116">
         <v>6</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="119" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="122" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="26"/>
-      <c r="B29" s="29"/>
+    <row r="29" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="117"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="26"/>
-      <c r="B30" s="29"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="123"/>
+    </row>
+    <row r="30" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="117"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="26"/>
-      <c r="B31" s="29"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="123"/>
+    </row>
+    <row r="31" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="117"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="27"/>
-      <c r="B32" s="30"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="123"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="125"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="1:7" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="25">
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="127"/>
+    </row>
+    <row r="33" spans="1:7" ht="111.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="116">
         <v>7</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="119" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="122" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="26"/>
-      <c r="B34" s="29"/>
+    <row r="34" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="117"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="32"/>
-    </row>
-    <row r="35" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="26"/>
-      <c r="B35" s="29"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="123"/>
+    </row>
+    <row r="35" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="117"/>
+      <c r="B35" s="120"/>
       <c r="C35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="26"/>
-      <c r="B36" s="29"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="123"/>
+    </row>
+    <row r="36" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="117"/>
+      <c r="B36" s="120"/>
       <c r="C36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="32"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="27"/>
-      <c r="B37" s="30"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="123"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="125"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="25">
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="127"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="116">
         <v>8</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="119" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="122" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="26"/>
-      <c r="B39" s="29"/>
+    <row r="39" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="117"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="32"/>
-    </row>
-    <row r="40" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="26"/>
-      <c r="B40" s="29"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="123"/>
+    </row>
+    <row r="40" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="117"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="32"/>
-    </row>
-    <row r="41" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="26"/>
-      <c r="B41" s="29"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="123"/>
+    </row>
+    <row r="41" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="117"/>
+      <c r="B41" s="120"/>
       <c r="C41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="32"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="123"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="118"/>
+      <c r="B42" s="121"/>
       <c r="C42" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D42" s="12"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G13:G17"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="G3:G7"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
